--- a/venv/Visualization/Capital-Country.xlsx
+++ b/venv/Visualization/Capital-Country.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,11 +482,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>0.83561643835616428</v>
+        <v>0.79726027397260268</v>
       </c>
       <c r="C2" s="4">
         <f xml:space="preserve"> 100*B2</f>
-        <v>83.561643835616422</v>
+        <v>79.726027397260268</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -494,11 +494,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.88219178082191774</v>
+        <v>0.8849315068493151</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="0" xml:space="preserve"> 100*B3</f>
-        <v>88.219178082191775</v>
+        <v>88.493150684931507</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -506,11 +506,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.89726027397260266</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>89.726027397260268</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -518,11 +518,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.92191780821917813</v>
+        <v>0.91506849315068484</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>92.191780821917817</v>
+        <v>91.506849315068479</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -530,11 +530,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.91369863013698627</v>
+        <v>0.90273972602739738</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>91.36986301369862</v>
+        <v>90.273972602739732</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -542,11 +542,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0.90958904109589034</v>
+        <v>0.92328767123287681</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>90.958904109589028</v>
+        <v>92.328767123287676</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -554,11 +554,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>0.92602739726027394</v>
+        <v>0.92328767123287681</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>92.602739726027394</v>
+        <v>92.328767123287676</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -566,11 +566,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>0.92602739726027394</v>
+        <v>0.90547945205479452</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>92.602739726027394</v>
+        <v>90.547945205479451</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -578,11 +578,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>0.93013698630136976</v>
+        <v>0.93835616438356162</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>93.013698630136972</v>
+        <v>93.835616438356169</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -590,11 +590,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>0.91917808219178077</v>
+        <v>0.92739726027397251</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>91.91780821917807</v>
+        <v>92.739726027397253</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -602,11 +602,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>0.91369863013698605</v>
+        <v>0.93287671232876712</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>91.369863013698605</v>
+        <v>93.287671232876718</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -626,11 +626,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>0.93424657534246569</v>
+        <v>0.92465753424657537</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>93.424657534246563</v>
+        <v>92.465753424657535</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,11 +650,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>0.92876712328767108</v>
+        <v>0.93835616438356162</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
-        <v>92.876712328767113</v>
+        <v>93.835616438356169</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -662,11 +662,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>0.92602739726027394</v>
+        <v>0.93013698630136987</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
-        <v>92.602739726027394</v>
+        <v>93.013698630136986</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -674,11 +674,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>0.93287671232876712</v>
+        <v>0.92602739726027394</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>93.287671232876718</v>
+        <v>92.602739726027394</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -686,11 +686,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>0.93561643835616448</v>
+        <v>0.94109589041095876</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
-        <v>93.561643835616451</v>
+        <v>94.109589041095873</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -698,11 +698,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>0.92191780821917801</v>
+        <v>0.93424657534246569</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
-        <v>92.191780821917803</v>
+        <v>93.424657534246563</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -710,11 +710,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>0.93698630136986283</v>
+        <v>0.92602739726027394</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>93.698630136986282</v>
+        <v>92.602739726027394</v>
       </c>
     </row>
   </sheetData>
